--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domownik\Desktop\QA1stProject\RyanairTest\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAC260C-CEB1-42A6-92A6-125C6C3CB1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281D17D3-B8EF-4661-984C-C3B55C3F9939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>Berlin</t>
   </si>
   <si>
-    <t xml:space="preserve"> IntercityHotel Berlin Ostbahnhof </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EXCLUSIVE Aparthotel Warszawa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hotel Lützow </t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +385,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -393,7 +393,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domownik\Desktop\QA1stProject\RyanairTest\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281D17D3-B8EF-4661-984C-C3B55C3F9939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFA0348-9AA3-442F-9343-9D29E125DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="7640" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>Berlin</t>
   </si>
   <si>
-    <t xml:space="preserve"> EXCLUSIVE Aparthotel Warszawa </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hotel Lützow </t>
+    <t xml:space="preserve"> Warsaw Apartments Magnolie </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IntercityHotel Berlin Ostbahnhof </t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
